--- a/src/test/resources/merchant/case/商品线对外soa.xlsx
+++ b/src/test/resources/merchant/case/商品线对外soa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\workspace-idea\automated\src\test\resources\finance\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\workspace-idea\automated\src\test\resources\merchant\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA68617-D299-4FD0-8292-345EDE84F37C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A47CD3-57F8-4BC8-9D8C-279F7CC04BE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$G$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$H$164</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="213">
   <si>
     <t>{"data":{"name":"七匹狼","currentPage":1,"itemsPerPage":10}}</t>
   </si>
@@ -2114,6 +2114,27 @@
   </si>
   <si>
     <t>/back-product-web2/cloud/stockWriteService/stockVirtualStockOut</t>
+  </si>
+  <si>
+    <r>
+      <t>base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Url</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BACK_URL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2482,21 +2503,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="60.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -2506,20 +2527,23 @@
       <c r="C1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>167</v>
       </c>
@@ -2530,16 +2554,19 @@
         <v>169</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>167</v>
       </c>
@@ -2550,16 +2577,19 @@
         <v>169</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>167</v>
       </c>
@@ -2570,17 +2600,20 @@
         <v>169</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>167</v>
       </c>
@@ -2591,17 +2624,20 @@
         <v>169</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>167</v>
       </c>
@@ -2612,17 +2648,20 @@
         <v>169</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>167</v>
       </c>
@@ -2633,16 +2672,19 @@
         <v>169</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>167</v>
       </c>
@@ -2653,16 +2695,19 @@
         <v>169</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>167</v>
       </c>
@@ -2673,16 +2718,19 @@
         <v>169</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>167</v>
       </c>
@@ -2693,16 +2741,19 @@
         <v>169</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>167</v>
       </c>
@@ -2713,16 +2764,19 @@
         <v>169</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>167</v>
       </c>
@@ -2733,16 +2787,19 @@
         <v>169</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>167</v>
       </c>
@@ -2753,16 +2810,19 @@
         <v>169</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>167</v>
       </c>
@@ -2773,16 +2833,19 @@
         <v>169</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>167</v>
       </c>
@@ -2793,16 +2856,19 @@
         <v>169</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>167</v>
       </c>
@@ -2813,16 +2879,19 @@
         <v>169</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>167</v>
       </c>
@@ -2833,16 +2902,19 @@
         <v>169</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>167</v>
       </c>
@@ -2853,16 +2925,19 @@
         <v>169</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>167</v>
       </c>
@@ -2872,17 +2947,20 @@
       <c r="C19" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>167</v>
       </c>
@@ -2892,17 +2970,20 @@
       <c r="C20" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>167</v>
       </c>
@@ -2912,17 +2993,20 @@
       <c r="C21" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>167</v>
       </c>
@@ -2932,17 +3016,20 @@
       <c r="C22" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>167</v>
       </c>
@@ -2952,17 +3039,20 @@
       <c r="C23" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>167</v>
       </c>
@@ -2972,17 +3062,20 @@
       <c r="C24" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>167</v>
       </c>
@@ -2992,17 +3085,20 @@
       <c r="C25" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>167</v>
       </c>
@@ -3012,17 +3108,20 @@
       <c r="C26" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" t="s">
         <v>178</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>167</v>
       </c>
@@ -3032,17 +3131,20 @@
       <c r="C27" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>167</v>
       </c>
@@ -3052,17 +3154,20 @@
       <c r="C28" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>167</v>
       </c>
@@ -3072,17 +3177,20 @@
       <c r="C29" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>167</v>
       </c>
@@ -3092,17 +3200,20 @@
       <c r="C30" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>167</v>
       </c>
@@ -3112,17 +3223,20 @@
       <c r="C31" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>167</v>
       </c>
@@ -3132,17 +3246,20 @@
       <c r="C32" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>167</v>
       </c>
@@ -3152,17 +3269,20 @@
       <c r="C33" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>167</v>
       </c>
@@ -3172,17 +3292,20 @@
       <c r="C34" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" t="s">
         <v>180</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>167</v>
       </c>
@@ -3192,17 +3315,20 @@
       <c r="C35" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>167</v>
       </c>
@@ -3212,17 +3338,20 @@
       <c r="C36" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" t="s">
         <v>180</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>167</v>
       </c>
@@ -3232,17 +3361,20 @@
       <c r="C37" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>167</v>
       </c>
@@ -3252,17 +3384,20 @@
       <c r="C38" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>167</v>
       </c>
@@ -3272,17 +3407,20 @@
       <c r="C39" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" t="s">
         <v>181</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>167</v>
       </c>
@@ -3292,17 +3430,20 @@
       <c r="C40" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>167</v>
       </c>
@@ -3312,17 +3453,20 @@
       <c r="C41" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>167</v>
       </c>
@@ -3332,17 +3476,20 @@
       <c r="C42" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>167</v>
       </c>
@@ -3352,17 +3499,20 @@
       <c r="C43" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>167</v>
       </c>
@@ -3372,17 +3522,20 @@
       <c r="C44" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>167</v>
       </c>
@@ -3392,17 +3545,20 @@
       <c r="C45" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>167</v>
       </c>
@@ -3412,17 +3568,20 @@
       <c r="C46" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" t="s">
         <v>182</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>167</v>
       </c>
@@ -3432,17 +3591,20 @@
       <c r="C47" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" t="s">
         <v>182</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>167</v>
       </c>
@@ -3452,17 +3614,20 @@
       <c r="C48" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" t="s">
         <v>182</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>167</v>
       </c>
@@ -3472,17 +3637,20 @@
       <c r="C49" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" t="s">
         <v>183</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>167</v>
       </c>
@@ -3492,17 +3660,20 @@
       <c r="C50" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E50" t="s">
         <v>183</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>167</v>
       </c>
@@ -3512,17 +3683,20 @@
       <c r="C51" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E51" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>167</v>
       </c>
@@ -3532,17 +3706,20 @@
       <c r="C52" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>167</v>
       </c>
@@ -3552,17 +3729,20 @@
       <c r="C53" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" t="s">
         <v>183</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="F53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>167</v>
       </c>
@@ -3572,17 +3752,20 @@
       <c r="C54" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>167</v>
       </c>
@@ -3592,17 +3775,20 @@
       <c r="C55" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>167</v>
       </c>
@@ -3612,17 +3798,20 @@
       <c r="C56" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" t="s">
         <v>184</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="F56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>167</v>
       </c>
@@ -3632,17 +3821,20 @@
       <c r="C57" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" t="s">
         <v>184</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>167</v>
       </c>
@@ -3652,17 +3844,20 @@
       <c r="C58" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
         <v>184</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="F58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>167</v>
       </c>
@@ -3672,17 +3867,20 @@
       <c r="C59" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" t="s">
         <v>185</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>167</v>
       </c>
@@ -3692,17 +3890,20 @@
       <c r="C60" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E60" t="s">
         <v>185</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>167</v>
       </c>
@@ -3712,17 +3913,20 @@
       <c r="C61" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
         <v>185</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>167</v>
       </c>
@@ -3732,17 +3936,20 @@
       <c r="C62" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" t="s">
         <v>185</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="F62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F62" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>167</v>
       </c>
@@ -3752,17 +3959,20 @@
       <c r="C63" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" t="s">
         <v>185</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>167</v>
       </c>
@@ -3772,17 +3982,20 @@
       <c r="C64" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E64" t="s">
         <v>186</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>167</v>
       </c>
@@ -3792,17 +4005,20 @@
       <c r="C65" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
         <v>186</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F65" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>167</v>
       </c>
@@ -3812,17 +4028,20 @@
       <c r="C66" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="F66" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>167</v>
       </c>
@@ -3832,17 +4051,20 @@
       <c r="C67" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
         <v>186</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="F67" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>167</v>
       </c>
@@ -3852,17 +4074,20 @@
       <c r="C68" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="F68" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>167</v>
       </c>
@@ -3872,17 +4097,20 @@
       <c r="C69" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" t="s">
         <v>187</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>167</v>
       </c>
@@ -3892,17 +4120,20 @@
       <c r="C70" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" t="s">
         <v>187</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F70" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>167</v>
       </c>
@@ -3912,17 +4143,20 @@
       <c r="C71" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" t="s">
         <v>187</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F71" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>167</v>
       </c>
@@ -3932,17 +4166,20 @@
       <c r="C72" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E72" t="s">
         <v>187</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F72" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>167</v>
       </c>
@@ -3952,17 +4189,20 @@
       <c r="C73" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" t="s">
         <v>187</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="F73" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F73" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>167</v>
       </c>
@@ -3972,17 +4212,20 @@
       <c r="C74" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E74" t="s">
         <v>188</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="F74" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>167</v>
       </c>
@@ -3992,17 +4235,20 @@
       <c r="C75" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" t="s">
         <v>188</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="F75" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F75" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>167</v>
       </c>
@@ -4012,17 +4258,20 @@
       <c r="C76" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E76" t="s">
         <v>188</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="F76" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>167</v>
       </c>
@@ -4032,17 +4281,20 @@
       <c r="C77" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" t="s">
         <v>188</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="F77" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F77" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>167</v>
       </c>
@@ -4052,17 +4304,20 @@
       <c r="C78" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" t="s">
         <v>188</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F78" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>167</v>
       </c>
@@ -4072,17 +4327,20 @@
       <c r="C79" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" t="s">
         <v>189</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="F79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F79" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>167</v>
       </c>
@@ -4092,17 +4350,20 @@
       <c r="C80" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F80" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>167</v>
       </c>
@@ -4112,17 +4373,20 @@
       <c r="C81" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" t="s">
         <v>189</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="F81" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>167</v>
       </c>
@@ -4132,17 +4396,20 @@
       <c r="C82" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" t="s">
         <v>189</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="F82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F82" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>167</v>
       </c>
@@ -4152,17 +4419,20 @@
       <c r="C83" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83" t="s">
         <v>189</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="F83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>167</v>
       </c>
@@ -4172,17 +4442,20 @@
       <c r="C84" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" t="s">
         <v>190</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="F84" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>167</v>
       </c>
@@ -4192,17 +4465,20 @@
       <c r="C85" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" t="s">
         <v>190</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="F85" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>167</v>
       </c>
@@ -4212,17 +4488,20 @@
       <c r="C86" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E86" t="s">
         <v>190</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="F86" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>167</v>
       </c>
@@ -4232,17 +4511,20 @@
       <c r="C87" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E87" t="s">
         <v>191</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="F87" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F87" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>167</v>
       </c>
@@ -4252,17 +4534,20 @@
       <c r="C88" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" t="s">
         <v>191</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F88" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>167</v>
       </c>
@@ -4272,17 +4557,20 @@
       <c r="C89" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" t="s">
         <v>191</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F89" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>167</v>
       </c>
@@ -4292,17 +4580,20 @@
       <c r="C90" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" t="s">
         <v>192</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="F90" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F90" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>167</v>
       </c>
@@ -4312,17 +4603,20 @@
       <c r="C91" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" t="s">
         <v>192</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="F91" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>167</v>
       </c>
@@ -4332,17 +4626,20 @@
       <c r="C92" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E92" t="s">
         <v>192</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="F92" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F92" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>167</v>
       </c>
@@ -4352,17 +4649,20 @@
       <c r="C93" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E93" t="s">
         <v>193</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="F93" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F93" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>167</v>
       </c>
@@ -4372,17 +4672,20 @@
       <c r="C94" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E94" t="s">
         <v>193</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F94" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>167</v>
       </c>
@@ -4392,17 +4695,20 @@
       <c r="C95" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E95" t="s">
         <v>193</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F95" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>167</v>
       </c>
@@ -4412,17 +4718,20 @@
       <c r="C96" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" t="s">
         <v>193</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="F96" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F96" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>167</v>
       </c>
@@ -4432,17 +4741,20 @@
       <c r="C97" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" t="s">
         <v>193</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="F97" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F97" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>167</v>
       </c>
@@ -4452,17 +4764,20 @@
       <c r="C98" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E98" t="s">
         <v>194</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="F98" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F98" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>167</v>
       </c>
@@ -4472,17 +4787,20 @@
       <c r="C99" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E99" t="s">
         <v>194</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="F99" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>167</v>
       </c>
@@ -4492,17 +4810,20 @@
       <c r="C100" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E100" t="s">
         <v>194</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F100" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>167</v>
       </c>
@@ -4512,17 +4833,20 @@
       <c r="C101" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E101" t="s">
         <v>194</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="F101" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F101" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>167</v>
       </c>
@@ -4532,17 +4856,20 @@
       <c r="C102" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" t="s">
         <v>195</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="F102" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F102" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>167</v>
       </c>
@@ -4552,17 +4879,20 @@
       <c r="C103" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" t="s">
         <v>195</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F103" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>167</v>
       </c>
@@ -4572,17 +4902,20 @@
       <c r="C104" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E104" t="s">
         <v>195</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="F104" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F104" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>167</v>
       </c>
@@ -4592,17 +4925,20 @@
       <c r="C105" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E105" t="s">
         <v>195</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F105" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>167</v>
       </c>
@@ -4612,17 +4948,20 @@
       <c r="C106" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E106" t="s">
         <v>196</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F106" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>167</v>
       </c>
@@ -4632,17 +4971,20 @@
       <c r="C107" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E107" t="s">
         <v>196</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="F107" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F107" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>167</v>
       </c>
@@ -4652,17 +4994,20 @@
       <c r="C108" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" t="s">
         <v>196</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="F108" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F108" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>167</v>
       </c>
@@ -4672,17 +5017,20 @@
       <c r="C109" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E109" t="s">
         <v>196</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="F109" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F109" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>167</v>
       </c>
@@ -4692,17 +5040,20 @@
       <c r="C110" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E110" t="s">
         <v>196</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="F110" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F110" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>167</v>
       </c>
@@ -4712,17 +5063,20 @@
       <c r="C111" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" t="s">
         <v>197</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="F111" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F111" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>167</v>
       </c>
@@ -4732,17 +5086,20 @@
       <c r="C112" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E112" t="s">
         <v>197</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="F112" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F112" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>167</v>
       </c>
@@ -4752,17 +5109,20 @@
       <c r="C113" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E113" t="s">
         <v>197</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="F113" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F113" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>167</v>
       </c>
@@ -4772,17 +5132,20 @@
       <c r="C114" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E114" t="s">
         <v>197</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="F114" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F114" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>167</v>
       </c>
@@ -4792,17 +5155,20 @@
       <c r="C115" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E115" t="s">
         <v>198</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>114</v>
       </c>
-      <c r="F115" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>167</v>
       </c>
@@ -4812,17 +5178,20 @@
       <c r="C116" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" t="s">
         <v>198</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>115</v>
       </c>
-      <c r="F116" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>167</v>
       </c>
@@ -4832,17 +5201,20 @@
       <c r="C117" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E117" t="s">
         <v>198</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>116</v>
       </c>
-      <c r="F117" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>167</v>
       </c>
@@ -4852,17 +5224,20 @@
       <c r="C118" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E118" t="s">
         <v>199</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>117</v>
       </c>
-      <c r="F118" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>167</v>
       </c>
@@ -4872,17 +5247,20 @@
       <c r="C119" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E119" t="s">
         <v>199</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>118</v>
       </c>
-      <c r="F119" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>167</v>
       </c>
@@ -4892,17 +5270,20 @@
       <c r="C120" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E120" t="s">
         <v>199</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>119</v>
       </c>
-      <c r="F120" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>167</v>
       </c>
@@ -4912,17 +5293,20 @@
       <c r="C121" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E121" t="s">
         <v>200</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>120</v>
       </c>
-      <c r="F121" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>167</v>
       </c>
@@ -4932,17 +5316,20 @@
       <c r="C122" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E122" t="s">
         <v>200</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>121</v>
       </c>
-      <c r="F122" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>167</v>
       </c>
@@ -4952,17 +5339,20 @@
       <c r="C123" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E123" t="s">
         <v>200</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>122</v>
       </c>
-      <c r="F123" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>167</v>
       </c>
@@ -4972,17 +5362,20 @@
       <c r="C124" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E124" t="s">
         <v>200</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>123</v>
       </c>
-      <c r="F124" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>167</v>
       </c>
@@ -4992,17 +5385,20 @@
       <c r="C125" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E125" t="s">
         <v>201</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="F125" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F125" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>167</v>
       </c>
@@ -5012,17 +5408,20 @@
       <c r="C126" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E126" t="s">
         <v>201</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="F126" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F126" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>167</v>
       </c>
@@ -5032,17 +5431,20 @@
       <c r="C127" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E127" t="s">
         <v>201</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="F127" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F127" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>167</v>
       </c>
@@ -5052,17 +5454,20 @@
       <c r="C128" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E128" t="s">
         <v>201</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="F128" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F128" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>167</v>
       </c>
@@ -5072,17 +5477,20 @@
       <c r="C129" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E129" t="s">
         <v>201</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="F129" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F129" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>167</v>
       </c>
@@ -5092,17 +5500,20 @@
       <c r="C130" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E130" t="s">
         <v>201</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="F130" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F130" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>167</v>
       </c>
@@ -5112,17 +5523,20 @@
       <c r="C131" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E131" t="s">
         <v>201</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="F131" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F131" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>167</v>
       </c>
@@ -5132,17 +5546,20 @@
       <c r="C132" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E132" t="s">
         <v>201</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="F132" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F132" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>167</v>
       </c>
@@ -5152,17 +5569,20 @@
       <c r="C133" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E133" t="s">
         <v>202</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="F133" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F133" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>167</v>
       </c>
@@ -5172,17 +5592,20 @@
       <c r="C134" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E134" t="s">
         <v>202</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="F134" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F134" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>167</v>
       </c>
@@ -5192,17 +5615,20 @@
       <c r="C135" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E135" t="s">
         <v>202</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="F135" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F135" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>167</v>
       </c>
@@ -5212,17 +5638,20 @@
       <c r="C136" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E136" t="s">
         <v>203</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F136" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>167</v>
       </c>
@@ -5232,17 +5661,20 @@
       <c r="C137" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E137" t="s">
         <v>203</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="F137" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F137" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>167</v>
       </c>
@@ -5252,17 +5684,20 @@
       <c r="C138" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E138" t="s">
         <v>203</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F138" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>167</v>
       </c>
@@ -5272,17 +5707,20 @@
       <c r="C139" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E139" t="s">
         <v>203</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F139" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>167</v>
       </c>
@@ -5292,17 +5730,20 @@
       <c r="C140" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E140" t="s">
         <v>203</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F140" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>167</v>
       </c>
@@ -5312,17 +5753,20 @@
       <c r="C141" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E141" t="s">
         <v>204</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="F141" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F141" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G141" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>167</v>
       </c>
@@ -5332,17 +5776,20 @@
       <c r="C142" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E142" t="s">
         <v>204</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F142" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>167</v>
       </c>
@@ -5352,17 +5799,20 @@
       <c r="C143" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E143" t="s">
         <v>204</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F143" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>167</v>
       </c>
@@ -5372,17 +5822,20 @@
       <c r="C144" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E144" t="s">
         <v>204</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F144" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>167</v>
       </c>
@@ -5392,17 +5845,20 @@
       <c r="C145" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E145" t="s">
         <v>204</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F145" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>167</v>
       </c>
@@ -5412,17 +5868,20 @@
       <c r="C146" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E146" t="s">
         <v>205</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="F146" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F146" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>167</v>
       </c>
@@ -5432,17 +5891,20 @@
       <c r="C147" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E147" t="s">
         <v>205</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F147" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>167</v>
       </c>
@@ -5452,17 +5914,20 @@
       <c r="C148" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E148" t="s">
         <v>205</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F148" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>167</v>
       </c>
@@ -5472,17 +5937,20 @@
       <c r="C149" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E149" t="s">
         <v>205</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F149" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>167</v>
       </c>
@@ -5492,17 +5960,20 @@
       <c r="C150" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E150" t="s">
         <v>205</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F150" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>167</v>
       </c>
@@ -5512,17 +5983,20 @@
       <c r="C151" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E151" t="s">
         <v>206</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="F151" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F151" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G151" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>167</v>
       </c>
@@ -5532,17 +6006,20 @@
       <c r="C152" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E152" t="s">
         <v>206</v>
       </c>
-      <c r="E152" s="9" t="s">
+      <c r="F152" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F152" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G152" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>167</v>
       </c>
@@ -5552,17 +6029,20 @@
       <c r="C153" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E153" t="s">
         <v>206</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="F153" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F153" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G153" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>167</v>
       </c>
@@ -5572,17 +6052,20 @@
       <c r="C154" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E154" t="s">
         <v>207</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="F154" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F154" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G154" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>167</v>
       </c>
@@ -5592,17 +6075,20 @@
       <c r="C155" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E155" t="s">
         <v>207</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="F155" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F155" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G155" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>167</v>
       </c>
@@ -5612,17 +6098,20 @@
       <c r="C156" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E156" t="s">
         <v>207</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="F156" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F156" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G156" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>167</v>
       </c>
@@ -5632,17 +6121,20 @@
       <c r="C157" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E157" t="s">
         <v>208</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="F157" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F157" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G157" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>167</v>
       </c>
@@ -5652,17 +6144,20 @@
       <c r="C158" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E158" t="s">
         <v>208</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="F158" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F158" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G158" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>167</v>
       </c>
@@ -5672,17 +6167,20 @@
       <c r="C159" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E159" t="s">
         <v>208</v>
       </c>
-      <c r="E159" s="9" t="s">
+      <c r="F159" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F159" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G159" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>167</v>
       </c>
@@ -5692,17 +6190,20 @@
       <c r="C160" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E160" t="s">
         <v>209</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="F160" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F160" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>167</v>
       </c>
@@ -5712,17 +6213,20 @@
       <c r="C161" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E161" t="s">
         <v>209</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F161" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>167</v>
       </c>
@@ -5732,17 +6236,20 @@
       <c r="C162" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E162" t="s">
         <v>210</v>
       </c>
-      <c r="E162" s="9" t="s">
+      <c r="F162" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F162" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G162" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>167</v>
       </c>
@@ -5752,17 +6259,20 @@
       <c r="C163" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E163" t="s">
         <v>210</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="F163" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F163" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G163" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>167</v>
       </c>
@@ -5772,18 +6282,21 @@
       <c r="C164" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E164" t="s">
         <v>210</v>
       </c>
-      <c r="E164" s="9" t="s">
+      <c r="F164" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="G164" s="8" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:G164" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="F1:H164" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
